--- a/biology/Histoire de la zoologie et de la botanique/Martin_Brasier/Martin_Brasier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Martin_Brasier/Martin_Brasier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin David Brasier FGS, FLS, né le 12 avril 1947 à Wimbledon et mort le 16 décembre 2014 près de Burford, est un paléobiologiste et astrobiologiste britannique.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martin David Brasier naît le 12 avril 1947 à Wimbledon[1].
-Il est professeur de paléobiologie à l'université d'Oxford[2] et membre émérite de St Edmund Hall.
-Il meurt dans un accident de la route près de Burford dans l'Oxfordshire au Royaume-Uni, le 16 décembre 2014[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martin David Brasier naît le 12 avril 1947 à Wimbledon.
+Il est professeur de paléobiologie à l'université d'Oxford et membre émérite de St Edmund Hall.
+Il meurt dans un accident de la route près de Burford dans l'Oxfordshire au Royaume-Uni, le 16 décembre 2014,.
 </t>
         </is>
       </c>
